--- a/config_3.9/shoping_config.xlsx
+++ b/config_3.9/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4671" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2059">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8752,6 +8752,26 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -15100,13 +15120,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN579"/>
+  <dimension ref="A1:AN580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W370" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y386" sqref="Y386:Z394"/>
+      <selection pane="bottomRight" activeCell="A580" sqref="A580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -41934,7 +41954,7 @@
         <v>1488</v>
       </c>
       <c r="W422" s="66" t="s">
-        <v>545</v>
+        <v>2058</v>
       </c>
       <c r="X422" s="66">
         <v>99999999</v>
@@ -52347,6 +52367,65 @@
         <v>1</v>
       </c>
       <c r="AM579" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:39">
+      <c r="A580" s="5">
+        <v>579</v>
+      </c>
+      <c r="B580" s="6">
+        <v>10496</v>
+      </c>
+      <c r="F580" s="6">
+        <v>1</v>
+      </c>
+      <c r="G580" s="6" t="s">
+        <v>2054</v>
+      </c>
+      <c r="I580" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="J580" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="L580" s="6">
+        <v>-31</v>
+      </c>
+      <c r="M580" s="6">
+        <v>0</v>
+      </c>
+      <c r="N580" s="6">
+        <v>0</v>
+      </c>
+      <c r="O580" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P580" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q580" s="5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="R580" s="81" t="s">
+        <v>2057</v>
+      </c>
+      <c r="W580" s="6" t="s">
+        <v>2058</v>
+      </c>
+      <c r="X580" s="6">
+        <v>99999999</v>
+      </c>
+      <c r="Y580" s="6">
+        <v>1614643200</v>
+      </c>
+      <c r="Z580" s="6">
+        <v>2552233600</v>
+      </c>
+      <c r="AH580" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI580" s="6">
         <v>1</v>
       </c>
     </row>

--- a/config_3.9/shoping_config.xlsx
+++ b/config_3.9/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4678" uniqueCount="2060">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8610,168 +8610,172 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>150000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10400000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20900000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>女神礼包-冲金鸡</t>
+  </si>
+  <si>
+    <t>女神礼包-捕鱼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
+  </si>
+  <si>
+    <t>coupon_gift_id|优惠券礼包ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满50抵扣5元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_5_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满98抵扣10元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_10_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满198抵扣20元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_20_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满498抵扣50元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_50_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满998抵扣100元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_100_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城内充值满2498抵扣200元</t>
+  </si>
+  <si>
+    <t>"jing_bi","obj_200_coupon",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500万金币",</t>
+  </si>
+  <si>
+    <t>"980万金币",</t>
+  </si>
+  <si>
+    <t>"1980万金币",</t>
+  </si>
+  <si>
+    <t>"4980万金币",</t>
+  </si>
+  <si>
+    <t>"9980万金币",</t>
+  </si>
+  <si>
+    <t>"24980万金币",</t>
+  </si>
+  <si>
+    <t>5000000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>249800000,-1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币周卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币周卡"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jbzk_special_item",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"2090万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>150000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10400000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>20900000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>女神礼包-冲金鸡</t>
-  </si>
-  <si>
-    <t>女神礼包-捕鱼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_csbox",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_ssbox",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_doubled","prop_ty_xybox",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_2","prop_ty_csbox",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_ssbox",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1","prop_ty_xybox",</t>
-  </si>
-  <si>
-    <t>coupon_gift_id|优惠券礼包ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满50抵扣5元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_5_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满98抵扣10元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_10_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满198抵扣20元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_20_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满498抵扣50元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_50_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满998抵扣100元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_100_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城内充值满2498抵扣200元</t>
-  </si>
-  <si>
-    <t>"jing_bi","obj_200_coupon",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"500万金币",</t>
-  </si>
-  <si>
-    <t>"980万金币",</t>
-  </si>
-  <si>
-    <t>"1980万金币",</t>
-  </si>
-  <si>
-    <t>"4980万金币",</t>
-  </si>
-  <si>
-    <t>"9980万金币",</t>
-  </si>
-  <si>
-    <t>"24980万金币",</t>
-  </si>
-  <si>
-    <t>5000000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>249800000,-1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_free_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v1v7_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "fclb_v8v12_002" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币周卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币周卡"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_jbzk_special_item",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
+    <t>"金币周卡",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9746,7 +9750,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1272</v>
@@ -15123,10 +15127,10 @@
   <dimension ref="A1:AN580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H557" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A580" sqref="A580"/>
+      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -41954,7 +41958,7 @@
         <v>1488</v>
       </c>
       <c r="W422" s="66" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="X422" s="66">
         <v>99999999</v>
@@ -51168,7 +51172,7 @@
         <v>87</v>
       </c>
       <c r="R562" s="70" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W562" s="5" t="s">
         <v>546</v>
@@ -51234,7 +51238,7 @@
         <v>87</v>
       </c>
       <c r="R563" s="70" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W563" s="5" t="s">
         <v>546</v>
@@ -51345,7 +51349,7 @@
         <v>1999</v>
       </c>
       <c r="J565" s="5" t="s">
-        <v>2013</v>
+        <v>2058</v>
       </c>
       <c r="L565" s="5">
         <v>-25</v>
@@ -51366,7 +51370,7 @@
         <v>87</v>
       </c>
       <c r="R565" s="70" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W565" s="5" t="s">
         <v>546</v>
@@ -51408,7 +51412,7 @@
         <v>131</v>
       </c>
       <c r="I566" s="22" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J566" s="22" t="s">
         <v>1886</v>
@@ -51429,7 +51433,7 @@
         <v>49800</v>
       </c>
       <c r="Q566" s="22" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="R566" s="71" t="s">
         <v>1874</v>
@@ -51476,7 +51480,7 @@
         <v>131</v>
       </c>
       <c r="I567" s="22" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J567" s="22" t="s">
         <v>1888</v>
@@ -51497,7 +51501,7 @@
         <v>19800</v>
       </c>
       <c r="Q567" s="22" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="R567" s="71" t="s">
         <v>1875</v>
@@ -51544,7 +51548,7 @@
         <v>131</v>
       </c>
       <c r="I568" s="22" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J568" s="22" t="s">
         <v>1869</v>
@@ -51565,7 +51569,7 @@
         <v>9800</v>
       </c>
       <c r="Q568" s="22" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="R568" s="71" t="s">
         <v>1876</v>
@@ -51612,7 +51616,7 @@
         <v>131</v>
       </c>
       <c r="I569" s="22" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="J569" s="22" t="s">
         <v>1868</v>
@@ -51633,7 +51637,7 @@
         <v>4800</v>
       </c>
       <c r="Q569" s="22" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="R569" s="71" t="s">
         <v>1877</v>
@@ -51680,7 +51684,7 @@
         <v>131</v>
       </c>
       <c r="I570" s="22" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J570" s="22" t="s">
         <v>1892</v>
@@ -51701,7 +51705,7 @@
         <v>49800</v>
       </c>
       <c r="Q570" s="22" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R570" s="71" t="s">
         <v>1895</v>
@@ -51748,7 +51752,7 @@
         <v>131</v>
       </c>
       <c r="I571" s="22" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J571" s="22" t="s">
         <v>1896</v>
@@ -51769,7 +51773,7 @@
         <v>19800</v>
       </c>
       <c r="Q571" s="22" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="R571" s="71" t="s">
         <v>1897</v>
@@ -51816,7 +51820,7 @@
         <v>131</v>
       </c>
       <c r="I572" s="22" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J572" s="22" t="s">
         <v>1898</v>
@@ -51837,7 +51841,7 @@
         <v>9800</v>
       </c>
       <c r="Q572" s="22" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="R572" s="71" t="s">
         <v>1881</v>
@@ -51884,7 +51888,7 @@
         <v>131</v>
       </c>
       <c r="I573" s="22" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J573" s="22" t="s">
         <v>1899</v>
@@ -51905,7 +51909,7 @@
         <v>4800</v>
       </c>
       <c r="Q573" s="22" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="R573" s="71" t="s">
         <v>1901</v>
@@ -51952,11 +51956,11 @@
         <v>1</v>
       </c>
       <c r="G574" s="22" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="H574" s="22"/>
       <c r="I574" s="22" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="J574" s="22"/>
       <c r="K574" s="22"/>
@@ -51976,10 +51980,10 @@
         <v>4500</v>
       </c>
       <c r="Q574" s="22" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="R574" s="82" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="S574" s="22"/>
       <c r="T574" s="22"/>
@@ -52024,11 +52028,11 @@
         <v>1</v>
       </c>
       <c r="G575" s="22" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="H575" s="22"/>
       <c r="I575" s="22" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="J575" s="22"/>
       <c r="K575" s="22"/>
@@ -52048,10 +52052,10 @@
         <v>8800</v>
       </c>
       <c r="Q575" s="22" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="R575" s="82" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="S575" s="22"/>
       <c r="T575" s="22"/>
@@ -52096,11 +52100,11 @@
         <v>1</v>
       </c>
       <c r="G576" s="22" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="H576" s="22"/>
       <c r="I576" s="22" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="J576" s="22"/>
       <c r="K576" s="22"/>
@@ -52120,10 +52124,10 @@
         <v>17800</v>
       </c>
       <c r="Q576" s="22" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="R576" s="82" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="S576" s="22"/>
       <c r="T576" s="22"/>
@@ -52168,11 +52172,11 @@
         <v>1</v>
       </c>
       <c r="G577" s="22" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="H577" s="22"/>
       <c r="I577" s="22" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="J577" s="22"/>
       <c r="K577" s="22"/>
@@ -52192,10 +52196,10 @@
         <v>44800</v>
       </c>
       <c r="Q577" s="22" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="R577" s="82" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="S577" s="22"/>
       <c r="T577" s="22"/>
@@ -52240,11 +52244,11 @@
         <v>1</v>
       </c>
       <c r="G578" s="22" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="H578" s="22"/>
       <c r="I578" s="22" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="J578" s="22"/>
       <c r="K578" s="22"/>
@@ -52264,10 +52268,10 @@
         <v>89800</v>
       </c>
       <c r="Q578" s="22" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="R578" s="82" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="S578" s="22"/>
       <c r="T578" s="22"/>
@@ -52312,11 +52316,11 @@
         <v>1</v>
       </c>
       <c r="G579" s="22" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="H579" s="22"/>
       <c r="I579" s="22" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="J579" s="22"/>
       <c r="K579" s="22"/>
@@ -52336,10 +52340,10 @@
         <v>229800</v>
       </c>
       <c r="Q579" s="22" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="R579" s="82" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="S579" s="22"/>
       <c r="T579" s="22"/>
@@ -52381,13 +52385,13 @@
         <v>1</v>
       </c>
       <c r="G580" s="6" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I580" s="6" t="s">
         <v>2054</v>
       </c>
-      <c r="I580" s="6" t="s">
-        <v>2055</v>
-      </c>
       <c r="J580" s="6" t="s">
-        <v>2055</v>
+        <v>2059</v>
       </c>
       <c r="L580" s="6">
         <v>-31</v>
@@ -52405,13 +52409,13 @@
         <v>1</v>
       </c>
       <c r="Q580" s="5" t="s">
+        <v>2055</v>
+      </c>
+      <c r="R580" s="81" t="s">
         <v>2056</v>
       </c>
-      <c r="R580" s="81" t="s">
+      <c r="W580" s="6" t="s">
         <v>2057</v>
-      </c>
-      <c r="W580" s="6" t="s">
-        <v>2058</v>
       </c>
       <c r="X580" s="6">
         <v>99999999</v>
@@ -53094,7 +53098,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -53458,7 +53462,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="65" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C71" s="64">
         <v>1</v>
@@ -53472,7 +53476,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="65" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C72" s="64">
         <v>1</v>
@@ -53486,7 +53490,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="65" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C73" s="64">
         <v>1</v>
